--- a/medicine/Enfance/Rosália/Rosália.xlsx
+++ b/medicine/Enfance/Rosália/Rosália.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ros%C3%A1lia</t>
+          <t>Rosália</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosália est une collection de livres pour enfants parue chez l'éditeur portugais Majora entre 1965 et 1967. Au total, 16 titres ont été publiés.
 La particularité de cette collection a été de publier uniquement des traductions de livres d'auteurs français parus dans la Bibliothèque rose : Anne Braillard, Claude Moiran, Georges Chaulet, Marguerite Thiébold, Nicole Lesueur, Cécile Aubry, et Olivier Séchan.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ros%C3%A1lia</t>
+          <t>Rosália</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,54 +527,131 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1965
-1 - As Férias de Ana, par Anne Braillard
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 - As Férias de Ana, par Anne Braillard
 2 - Ana na Praia, par Anne Braillard
 3 - Jampi no País das Crianças, par Claude Moiran
 4 - Jampi e o Grande Chefe, par Claude Moiran
 5 - Jampi e o Macaco Bébé, par Claude Moiran
 6 - As Proezas de Fantomete, par Georges Chaulet
-1966
-7 - Fantomete no Carnaval, par Georges Chaulet
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rosália</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A1lia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 - Fantomete no Carnaval, par Georges Chaulet
 8 - Fantomete Contra o Mocho, par Georges Chaulet
 9 - Jampi e o Vagão Cor-de-Rosa, par Claude Moiran
 10 - Jampi e Melusina, par Claude Moiran
 11 - Lili e o seu Baixote, par Marguerite Thiébold
 12 - Lili e as suas Cabras, par Marguerite Thiébold
 13 - Lili e o seu Lobo, par Marguerite Thiébold
-1967
-14 - Um Cavalo para Mariana, par Nicole Lesueur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rosália</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A1lia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 - Um Cavalo para Mariana, par Nicole Lesueur
 15 - Poly ou a Maravilhosa História dum Rapazinho e dum Pónei, par Cécile Aubry
 16 - O Refúgio ao Fundo da Floresta, par Olivier Séchan
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ros%C3%A1lia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rosália</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ros%C3%A1lia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Tableau récapitulatif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de la littérature   Portail de la littérature d’enfance et de jeunesse                    </t>
         </is>
